--- a/lua_stack_info.xlsx
+++ b/lua_stack_info.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC3617E-52AA-4962-AEAD-1EC467E6EE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debug接口" sheetId="3" r:id="rId1"/>
     <sheet name="getinfo" sheetId="1" r:id="rId2"/>
-    <sheet name="如何和C++结合" sheetId="2" r:id="rId3"/>
+    <sheet name="内存分配" sheetId="4" r:id="rId3"/>
+    <sheet name="如何和C++结合" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>如何和C++获取的调用栈结合起来？？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,12 +110,70 @@
   </si>
   <si>
     <t>lua_getinfo</t>
+  </si>
+  <si>
+    <t>lua_Debug ar;</t>
+  </si>
+  <si>
+    <t>lua_getstack(L, 1, &amp;ar);</t>
+  </si>
+  <si>
+    <t>lua_getinfo(L, "Sl", &amp;ar);</t>
+  </si>
+  <si>
+    <t>获取文件名字和行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static void *l_alloc (void *ud, void *ptr, size_t osize, size_t nsize) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (void)ud; (void)osize;  /* not used */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (nsize == 0) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    free(ptr);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return realloc(ptr, nsize);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>void *luaM_realloc_ (lua_State *L, void *block, size_t osize, size_t nsize) {</t>
+  </si>
+  <si>
+    <t>newblock = (*g-&gt;frealloc)(g-&gt;ud, block, osize, nsize);</t>
+  </si>
+  <si>
+    <t>分配函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该函数的EBP可以定位到LUA的内存分配，然后呢？？？获取文件名和行数又非常的麻烦，主要没办法快速的存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,7 +518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -579,11 +639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B4:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,6 +663,26 @@
         <v>26</v>
       </c>
     </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -610,7 +690,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBE6824-5058-4155-9652-4166D7BB25D7}">
+  <dimension ref="A2:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
